--- a/dados/radical_som_filial.xlsx
+++ b/dados/radical_som_filial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -596,17 +652,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -621,17 +687,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -646,17 +722,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -671,17 +757,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -696,17 +792,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -721,17 +827,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -746,42 +862,58 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>624.33</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -796,17 +928,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -821,124 +963,174 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721501-fonte-carregador-automotiva-60a-jfa-sistema-inteligente-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721501-fonte-carregador-automotiva-60a-jfa-sistema-inteligente-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>443.07</v>
+        <v>624.33</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>493.42</v>
+        <v>443.07</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#searchVariation=MLB25571709&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa  90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>443.07</v>
+        <v>493.42</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549400-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#searchVariation=MLB25571709&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+          <t>Fonte Carregador Jfa  90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>845.87</v>
+        <v>443.07</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549400-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -946,24 +1138,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -971,24 +1169,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -996,24 +1204,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1021,24 +1239,34 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1046,167 +1274,237 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>774.88</v>
+        <v>845.87</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>694.8200000000001</v>
+        <v>774.88</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.88</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>694.8200000000001</v>
+        <v>774.88</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>774.88</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>694.8200000000001</v>
+        <v>774.88</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1519,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -1246,24 +1554,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1271,17 +1589,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -1296,24 +1624,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1321,17 +1659,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -1346,24 +1694,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1371,17 +1729,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
@@ -1396,49 +1764,69 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
+          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1446,24 +1834,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
+          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1471,24 +1869,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1496,24 +1900,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1521,24 +1935,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1546,24 +1970,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1571,24 +2005,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
+          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1596,24 +2040,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Digital</t>
+          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1621,24 +2075,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745475-fonte-carregador-jfa-120-amperes-sci-red-line-digital-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci  Digital</t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Digital</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1646,17 +2110,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745477-fonte-carregador-inteligente-jfa-120-amperes-sci-digital-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4c470b-e16f-4ef7-b648-acfcab0fe406</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745475-fonte-carregador-jfa-120-amperes-sci-red-line-digital-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
         </is>
       </c>
     </row>

--- a/dados/radical_som_filial.xlsx
+++ b/dados/radical_som_filial.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>634.4</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -511,13 +511,13 @@
           <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>699</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -542,19 +542,15 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>774.88</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -567,7 +563,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -577,14 +573,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>845.87</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -602,7 +598,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -612,14 +608,14 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>716.71</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -637,7 +633,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -647,14 +643,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>624.33</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -672,7 +668,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -682,14 +678,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>422.93</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -707,7 +703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -717,14 +713,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>493.42</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -742,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -752,14 +748,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>443.07</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -777,23 +773,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>402.79</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -812,23 +808,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>634.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -847,7 +843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -857,13 +853,13 @@
           <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>382.65</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -878,7 +874,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -888,14 +884,14 @@
           <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -913,7 +909,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -923,14 +919,14 @@
           <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -948,7 +944,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -958,14 +954,14 @@
           <t>Fonte Carregador Automotiva 60a Jfa Sistema Inteligente Sci</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>473.28</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -983,7 +979,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721501-fonte-carregador-automotiva-60a-jfa-sistema-inteligente-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721501-fonte-carregador-automotiva-60a-jfa-sistema-inteligente-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -993,14 +989,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>624.33</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1018,23 +1014,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>493.42</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1048,28 +1044,28 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#searchVariation=MLB25571709&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>443.07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1083,12 +1079,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#searchVariation=MLB25571709&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1094,14 @@
           <t>Fonte Carregador Jfa  90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>443.07</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1123,7 +1119,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549400-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549400-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1133,13 +1129,13 @@
           <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>845.87</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1154,7 +1150,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1164,14 +1160,14 @@
           <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>845.87</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1189,7 +1185,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1195,14 @@
           <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>845.87</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1224,24 +1220,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>845.87</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1259,24 +1255,24 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>845.87</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1294,29 +1290,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1329,23 +1321,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1364,29 +1356,25 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1399,23 +1387,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1434,29 +1422,25 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1469,23 +1453,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1504,7 +1488,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1514,19 +1498,15 @@
           <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>774.88</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1539,7 +1519,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1549,14 +1529,14 @@
           <t>Fonte Carregador Jfa 120a Bivolt Sci Storm Medidor Cca</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>634.4</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1574,24 +1554,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1609,7 +1589,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1599,14 @@
           <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1644,24 +1624,24 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1679,7 +1659,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1689,14 +1669,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1714,24 +1694,24 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1749,7 +1729,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
@@ -1759,14 +1739,14 @@
           <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1784,23 +1764,23 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1819,27 +1799,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1854,25 +1834,29 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1885,24 +1869,24 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1920,24 +1904,24 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1955,24 +1939,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1990,24 +1974,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2025,24 +2009,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2060,24 +2044,24 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Digital</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2095,24 +2079,24 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745475-fonte-carregador-jfa-120-amperes-sci-red-line-digital-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Digital</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci  Digital</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2130,7 +2114,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745475-fonte-carregador-jfa-120-amperes-sci-red-line-digital-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6bc4d6f3-dfd6-4cf2-ae0c-d8c6e9a9e1dd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745477-fonte-carregador-inteligente-jfa-120-amperes-sci-digital-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
         </is>
       </c>
     </row>

--- a/dados/radical_som_filial.xlsx
+++ b/dados/radical_som_filial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -544,13 +544,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>774.88</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -563,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -598,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -614,11 +618,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>716.71</v>
+        <v>796.35</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -668,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -703,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -738,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -773,7 +777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -808,29 +812,25 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>634.4</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>382.65</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -843,25 +843,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>382.65</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -874,14 +878,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -890,7 +894,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>694.8200000000001</v>
+        <v>624.33</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -904,28 +908,28 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>674.6799999999999</v>
+        <v>493.42</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -939,28 +943,28 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#searchVariation=MLB25571709&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 60a Jfa Sistema Inteligente Sci</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>473.28</v>
+        <v>736.61</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -974,19 +978,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721501-fonte-carregador-automotiva-60a-jfa-sistema-inteligente-sci-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504566-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -995,7 +999,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>624.33</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1009,28 +1013,28 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>493.42</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1044,28 +1048,28 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#searchVariation=MLB25571709&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotiva Jfa 36 Amperes Slim Bivolt Slim</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>443.07</v>
+        <v>433</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1084,14 +1088,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733029-fonte-carregador-automotiva-jfa-36-amperes-slim-bivolt-slim-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa  90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1119,25 +1123,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549400-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>845.87</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1150,19 +1158,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1170,7 +1178,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1185,14 +1193,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1220,23 +1228,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>845.87</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1255,14 +1263,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1290,7 +1298,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -1302,13 +1310,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>774.88</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1321,23 +1333,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>694.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1356,25 +1368,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>845.87</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1387,23 +1403,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>694.8200000000001</v>
+        <v>774.88</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1422,25 +1438,29 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1453,23 +1473,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>694.8200000000001</v>
+        <v>845.87</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1488,25 +1508,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>774.88</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1519,14 +1543,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Sci Storm Medidor Cca</t>
+          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1535,7 +1559,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>634.4</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1549,28 +1573,28 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>694.8200000000001</v>
+        <v>774.88</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1589,23 +1613,23 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1624,14 +1648,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1659,23 +1683,23 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1694,14 +1718,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1729,23 +1753,23 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1764,23 +1788,23 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1799,7 +1823,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1858,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1893,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
@@ -1904,14 +1928,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1939,14 +1963,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766875-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1974,14 +1998,14 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2009,14 +2033,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
+          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2044,14 +2068,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Digital</t>
+          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2079,42 +2103,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745475-fonte-carregador-jfa-120-amperes-sci-red-line-digital-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci  Digital</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745477-fonte-carregador-inteligente-jfa-120-amperes-sci-digital-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D48ff0405-6ddf-4dc4-a028-c3550170b647</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
         </is>
       </c>
     </row>

--- a/dados/radical_som_filial.xlsx
+++ b/dados/radical_som_filial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1637 +483,2107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>634.4</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>699</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>774.88</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>774.88</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>699</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>845.87</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>796.35</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>624.33</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>422.93</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>493.42</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>443.07</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>402.79</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>634.4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>382.65</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>402.79</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>634.4</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>382.65</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>624.33</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>493.42</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#searchVariation=MLB25571709&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>736.61</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504566-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504566-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>694.8200000000001</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>523.63</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549034-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 36 Amperes Slim Bivolt Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>433</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>443.07</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733029-fonte-carregador-automotiva-jfa-36-amperes-slim-bivolt-slim-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>443.07</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>845.87</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>493.42</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766845-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>845.87</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bivolt Sci Storm Medidor Cca</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>634.4</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>845.87</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>845.87</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>845.87</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>774.88</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E26" t="n">
+        <v>845.87</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>845.87</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>845.87</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>774.88</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>845.87</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>774.88</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>845.87</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>774.88</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>845.87</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>774.88</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>774.88</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>694.8200000000001</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>774.88</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="E36" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>694.8200000000001</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766875-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>694.8200000000001</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>774.88</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="E39" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="E40" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>674.6799999999999</v>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766875-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="E45" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745705-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="E46" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="E47" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="E48" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D49182b9e-7b01-4f64-a56c-ef8431d9e369</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
         </is>
       </c>
     </row>

--- a/dados/radical_som_filial.xlsx
+++ b/dados/radical_som_filial.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>634.4</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>774.88</v>
+        <v>634.4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,18 +583,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+          <t>Fonte Carregador Jfa 120a Bivolt Sci Storm Medidor Cca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>699</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>634.4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -602,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,20 +628,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>845.87</v>
+        <v>738.22</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -652,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>796.35</v>
+        <v>493.42</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -692,19 +696,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766845-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,7 +718,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -723,7 +727,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>624.33</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -737,19 +741,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,16 +763,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>422.93</v>
+        <v>402.79</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -787,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,16 +808,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>493.42</v>
+        <v>845.87</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -827,19 +831,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,16 +853,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>443.07</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -872,19 +876,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,16 +898,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>634.4</v>
+        <v>736.61</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -922,14 +926,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504566-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +943,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>402.79</v>
+        <v>634.4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -967,14 +971,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,18 +988,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>382.65</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1003,19 +1011,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,22 +1033,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1048,19 +1052,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=cdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,16 +1074,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>674.6799999999999</v>
+        <v>523.63</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1098,14 +1102,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549034-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,16 +1119,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>736.61</v>
+        <v>443.07</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1143,14 +1147,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504566-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,16 +1164,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>523.63</v>
+        <v>845.87</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1188,14 +1192,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549034-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,16 +1209,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>694.8200000000001</v>
+        <v>634.4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1228,19 +1232,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,16 +1254,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>443.07</v>
+        <v>774.88</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1278,14 +1282,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,16 +1299,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>674.6799999999999</v>
+        <v>422.93</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1318,19 +1322,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,7 +1344,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1368,14 +1372,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766845-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,16 +1389,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Sci Storm Medidor Cca</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>634.4</v>
+        <v>845.87</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1408,19 +1412,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,7 +1434,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1458,14 +1462,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,7 +1479,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1503,14 +1507,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1520,16 +1524,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>845.87</v>
+        <v>624.33</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1543,19 +1547,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1593,14 +1597,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1610,16 +1614,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>845.87</v>
+        <v>624.33</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1633,19 +1637,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1655,16 +1659,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>674.6799999999999</v>
+        <v>845.87</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1683,14 +1687,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1700,22 +1704,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>382.65</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1723,19 +1723,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1745,16 +1745,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>774.88</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1773,14 +1773,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1790,16 +1790,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>674.6799999999999</v>
+        <v>774.88</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1818,14 +1818,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1863,14 +1863,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1880,16 +1880,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>774.88</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1908,14 +1908,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1925,16 +1925,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>674.6799999999999</v>
+        <v>774.88</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1953,14 +1953,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1970,16 +1970,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>774.88</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1998,14 +1998,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2015,16 +2015,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>694.8200000000001</v>
+        <v>774.88</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2043,14 +2043,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2060,16 +2060,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
+          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>674.6799999999999</v>
+        <v>774.88</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2088,14 +2088,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766875-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2105,16 +2105,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>774.88</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2133,14 +2133,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766875-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2178,14 +2178,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2195,16 +2195,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>694.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2223,14 +2223,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745705-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2240,16 +2240,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>694.8200000000001</v>
+        <v>774.88</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2268,14 +2268,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492722139-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2285,20 +2285,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>694.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2313,14 +2313,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2358,14 +2358,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2375,20 +2375,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2403,14 +2403,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2420,16 +2420,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2448,14 +2448,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745705-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2465,16 +2465,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2493,14 +2493,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2538,14 +2538,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcdd6fca7-d3fd-45c8-a1ab-25f5c8f0291c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
         </is>
       </c>
     </row>

--- a/dados/radical_som_filial.xlsx
+++ b/dados/radical_som_filial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,42 +493,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>674.6799999999999</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#wid=MLB4156549710&amp;sid=search&amp;searchVariation=MLB26854417&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,42 +538,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>634.4</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:305631824#wid=MLB3492767409&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bivolt Sci Storm Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Lite Slim Bivolt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>634.4</v>
+        <v>420.99</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3798433775-fonte-carregador-jfa-70a-lite-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,42 +628,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>738.22</v>
+        <v>552.35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#searchVariation=MLB24154371&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733459-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,25 +673,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Fonte Carregador Jfa 120a Bivolt Sci Storm Medidor Cca</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>493.42</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766845-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745749-fonte-carregador-jfa-120a-bivolt-sci-storm-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,42 +718,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>694.8200000000001</v>
+        <v>508.22</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#wid=MLB3492733369&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,42 +763,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>402.79</v>
+        <v>487.48</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3817414669-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,20 +808,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>845.87</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -831,19 +831,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#wid=MLB3492733513&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,25 +853,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa Bob 200 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>674.6799999999999</v>
+        <v>715.66</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -881,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767141-fonte-carregador-jfa-bob-200-amperes-bivolt-inteligente-full-_JM?searchVariation=179077391066#searchVariation%3D179077391066%26position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,42 +898,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carregador Jfa Storm 200a 14,4v Mais Completa Smart Cca 220v</t>
+          <t>Fonte Carregador Jfa 70a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>736.61</v>
+        <v>447.46</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504566-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3798418861-fonte-carregador-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,20 +943,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>634.4</v>
+        <v>1000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -966,19 +966,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#searchVariation=MLB27869459&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,25 +988,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Bob Storm 90a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>443.07</v>
+        <v>738.22</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156528086-fonte-automotiva-jfa-bob-storm-90a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:305631824#wid=MLB4156516920&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,18 +1033,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>699</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>871.26</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1057,14 +1061,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#searchVariation=MLB21562625&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:305631824#wid=MLB3492722035&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,20 +1078,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>523.63</v>
+        <v>694.92</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1102,14 +1106,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549034-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:305631824#wid=MLB3492721969&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,25 +1123,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>443.07</v>
+        <v>758.71</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1147,14 +1151,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#wid=MLB3735485945&amp;sid=search&amp;searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,25 +1168,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a 200 Amperes Sci Red Line Redline</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>845.87</v>
+        <v>487.48</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1192,14 +1196,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766853-fonte-carregador-jfa-200a-200-amperes-sci-red-line-redline-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:305631824#wid=MLB3492722023&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,20 +1213,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Jfa 120a Carregador 12v Bivolt Sci Carga Inteligente</t>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>634.4</v>
+        <v>1000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1232,19 +1236,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721805-fonte-jfa-120a-carregador-12v-bivolt-sci-carga-inteligente-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,25 +1258,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>774.88</v>
+        <v>456.36</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1282,14 +1286,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:305631824#searchVariation=MLB24006449&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#wid=MLB3492721981&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,20 +1303,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>422.93</v>
+        <v>552.35</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1327,14 +1331,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:305631824#searchVariation=MLB21562641&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:305631824#wid=MLB3492777875&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,20 +1348,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva Bob Jfa Storm 90a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>493.42</v>
+        <v>1000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1367,19 +1371,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:305631824#searchVariation=MLB21455208&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3816291805-fonte-automotiva-bob-jfa-storm-90a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1389,20 +1393,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt - 12v</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>845.87</v>
+        <v>694.92</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1417,14 +1421,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527632-fonte-carregador-jfa-storm-120a-bivolt-12v-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,20 +1438,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
+          <t>Fonte Automotiva Digital Jfa 60a Slim Bivolt Automatica Cor Preto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>674.6799999999999</v>
+        <v>507.07</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1457,19 +1461,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:305631824#wid=MLB3735488535&amp;sid=search&amp;searchVariation=MLB21630472&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1479,20 +1483,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>845.87</v>
+        <v>653.42</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1502,19 +1506,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:305631824#wid=MLB4784037220&amp;sid=search&amp;searchVariation=MLB27869459&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,20 +1528,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Slim Bivolt C/ Voltímetro Full</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>624.33</v>
+        <v>1000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1547,19 +1551,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:305631824#searchVariation=MLB26854417&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745493-fonte-carregador-jfa-70a-slim-bivolt-c-voltimetro-full-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1578,7 +1582,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>845.87</v>
+        <v>798.12</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1597,14 +1601,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733541-carregador-jfa-storm-200a-144v-mais-completa-smart-cca-220v-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1614,20 +1618,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>624.33</v>
+        <v>1000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1637,19 +1641,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:305631824#searchVariation=MLB24834408&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:305631824#wid=MLB4775536894&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1659,20 +1663,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>845.87</v>
+        <v>798.12</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1687,14 +1691,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527410-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1713,7 +1717,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>382.65</v>
+        <v>1000</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
@@ -1728,14 +1732,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#searchVariation=MLB33435981&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:305631824#wid=MLB4775510768&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1745,20 +1749,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>674.6799999999999</v>
+        <v>1000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1768,19 +1772,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:305631824#wid=MLB4775536150&amp;sid=search&amp;searchVariation=MLB25571709&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1790,20 +1794,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Mono - 12v</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>774.88</v>
+        <v>871.26</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1818,14 +1822,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516686-fonte-carregador-jfa-storm-200a-mono-12v-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516220-fonte-automotiva-jfa-200a-slim-bivolt-voltimetro-digital-som-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1835,20 +1839,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>845.87</v>
+        <v>798.12</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1863,14 +1867,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1880,22 +1884,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+          <t>Fonte Automotiva Spark Usina 120a + Controle Jfa K600 Comple Cor Amarelo</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1908,14 +1908,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-spark-usina-120a-controle-jfa-k600-comple-cor-amarelo/p/MLB21562625?pdp_filters=seller_id:305631824#wid=MLB3492733637&amp;sid=search&amp;searchVariation=MLB21562625&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1925,20 +1925,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Carregador Jfa Storm 200a Bivolt 14,4v Sci Medidor Cca</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>774.88</v>
+        <v>871.26</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754619-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504238-fonte-carregador-jfa-storm-200a-bivolt-144v-sci-medidor-cca-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>694.8200000000001</v>
+        <v>798.12</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1998,14 +1998,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2024,11 +2024,11 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>774.88</v>
+        <v>798.12</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527666-carregador-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Medidor Cca 220v Monovolt</t>
+          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2069,11 +2069,11 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>774.88</v>
+        <v>798.12</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2088,14 +2088,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492767115-fonte-carregador-jfa-200a-storm-medidor-cca-220v-monovolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492722139-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2105,20 +2105,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>674.6799999999999</v>
+        <v>798.12</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2133,14 +2133,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766875-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767121-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2150,20 +2150,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>694.8200000000001</v>
+        <v>871.26</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2178,14 +2178,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516242-fonte-carregador-automotiva-jfa-200a-slim-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Com Sistema Sci +forte</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2204,11 +2204,11 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>674.6799999999999</v>
+        <v>772.13</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2223,14 +2223,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492745705-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504256-fonte-automotiva-120-a-jfa-carregador-com-sistema-sci-forte-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2240,20 +2240,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 200a Monovolt Flutuação Proteção</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>774.88</v>
+        <v>715.67</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2268,14 +2268,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492722139-fonte-carregador-jfa-storm-200a-monovolt-flutuaco-proteco-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2285,16 +2285,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>674.6799999999999</v>
+        <v>772.13</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2313,14 +2313,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504252-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2339,11 +2339,11 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>694.8200000000001</v>
+        <v>715.67</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2358,14 +2358,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527698-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-_JM?searchVariation=179077378884#searchVariation%3D179077378884%26position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2375,20 +2375,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>Fonte Carregador Jfa 120a Pwm Sci Bivolt Som Caixa Bob</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>694.8200000000001</v>
+        <v>772.13</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2403,14 +2403,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504260-fonte-carregador-jfa-120a-pwm-sci-bivolt-som-caixa-bob-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2429,11 +2429,11 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>694.8200000000001</v>
+        <v>715.67</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754363-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM?searchVariation=179077403542#searchVariation%3D179077403542%26position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2465,20 +2465,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>694.8200000000001</v>
+        <v>694.92</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2493,14 +2493,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4156549302-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745747-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2510,20 +2510,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>674.6799999999999</v>
+        <v>715.67</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2538,14 +2538,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745773-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2555,35 +2555,2326 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp Bivolt</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>772.13</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516474-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-bivolt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Para Caixa Bob Esponja Storm 200a Bivolt Forte</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>715.67</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721839-fonte-jfa-para-caixa-bob-esponja-storm-200a-bivolt-forte-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D756d5742-2376-45f6-9139-65f27dfd6a50</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754331-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Volt/amp</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D0d15a162-f7e7-4ffc-830c-66ca158d09b0</t>
+      <c r="E51" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766857-fonte-carregador-jfa-120-amperes-sci-red-line-voltamp-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Expert Jfa 120a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527658-fonte-automotiva-expert-jfa-120a-slim-bivolt-voltimetro-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Estor 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745705-fonte-carregador-jfa-estor-120a-bivolt-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Voltímetro Sci</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733211-fonte-carregador-inteligente-jfa-120-amperes-voltimetro-sci-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Fonte P/caixa Bob Jfa Storm 200a Bivolt 3800w Sem Bateria</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>715.67</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733245-fonte-pcaixa-bob-jfa-storm-200a-bivolt-3800w-sem-bateria-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Digital Cca</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721799-fonte-carregador-jfa-storm-120a-bivolt-digital-cca-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Amperes Redline Voltímetro Digita</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527396-fonte-automotiva-jfa-120a-amperes-redline-voltimetro-digita-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Inteligente Jfa 120 Amperes Sci  Digital</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745477-fonte-carregador-inteligente-jfa-120-amperes-sci-digital-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120 Amperes Sci Red Line Digital</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745475-fonte-carregador-jfa-120-amperes-sci-red-line-digital-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 120a Jfa Com Sistema Sci Volt/amp</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766875-fonte-carregador-120a-jfa-com-sistema-sci-voltamp-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527660-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120 A Jfa Carregador Muito Forte</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504012-fonte-automotiva-120-a-jfa-carregador-muito-forte-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745739-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Melhor Fonte 120a Caixa Bob Jfa 120a Storm 110/220v</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745707-melhor-fonte-120a-caixa-bob-jfa-120a-storm-110220v-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador 120a Jfa Voltímetro Original</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732981-fonte-automotiva-carregador-120a-jfa-voltimetro-original-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504230-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 120 A Jfa Com Sistema Sci Volt/amp Bivolt</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>726.03</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549280-fonte-carregador-120-a-jfa-com-sistema-sci-voltamp-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Red Line Volt/amp</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156492238-fonte-carregador-jfa-200-amperes-sci-red-line-voltamp-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 200a 12v 14,4v Smart Cca Sci 220v Mono</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>843.01</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527670-fonte-jfa-storm-200a-12v-144v-smart-cca-sci-220v-mono-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>714.51</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721847-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Inteligente Sci</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>726.03</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492721803-fonte-automotiva-120a-amperes-jfa-carregador-inteligente-sci-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549038-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>571.61</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549326-fonte-carregador-jfa-120a-bob-storm-slim-bivolt-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Slim Bivolt Sistema Inteligente Sci</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156492248-fonte-carregador-jfa-60a-slim-bivolt-sistema-inteligente-sci-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>484.02</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767237-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bob Jfa Storm Lite 60a Bivolt</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>446.82</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504446-fonte-carregador-bob-jfa-storm-lite-60a-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492745479-fonte-carregador-60a-jfa-automotiva-similar-stetsom-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Red Line</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>541.64</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504140-fonte-carregador-automotivo-jfa-60a-red-line-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Redline Red Line</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>541.64</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504138-fonte-carregador-automotivo-jfa-60a-redline-red-line-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90 Amperes P/ Caixa Bob Muito Forte</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>507.07</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516604-fonte-carregador-jfa-90-amperes-p-caixa-bob-muito-forte-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Redline Red Line Smart Cooler</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>541.64</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504142-fonte-carregador-jfa-60a-redline-red-line-smart-cooler-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Para Caixa Som Bob Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>507.07</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492767239-fonte-carregador-jfa-90a-para-caixa-som-bob-bivolt-slim-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 60a Slim 110 /220 Volts</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>541.64</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766843-fonte-carregador-automotiva-jfa-60a-slim-110-220-volts-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>507.07</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492777639-fonte-carregador-jfa-bob-90-amperes-bivolt-inteligente-full-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa 60a 60 Amperes Sci Red Line </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>541.64</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516218-fonte-carregador-automotivo-jfa-60a-60-amperes-sci-red-line-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>507.07</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492733327-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 60a Bivolt 14,4v Sci Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>541.64</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516454-fonte-carregador-jfa-storm-60a-bivolt-144v-sci-medidor-cca-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa  90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>507.07</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549400-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Estacionaria Jfa 60a Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>541.64</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766865-fonte-carregador-bateria-estacionaria-jfa-60a-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Jfa 70a Sistema Inteligente Para Bateria </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>599.27</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156492250-fonte-carregador-jfa-70a-sistema-inteligente-para-bateria-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Carregador Fonte Para Bateria Estacionaria Nobraque Jfa 70a</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>599.27</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156549034-carregador-fonte-para-bateria-estacionaria-nobraque-jfa-70a-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Carregador Bateria Inteligente Jfa 120a Sci Muito Forte</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>669.99</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156492252-carregador-bateria-inteligente-jfa-120a-sci-muito-forte-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156527638-fonte-carregador-jfa-120a-bivolt-storm-com-medidor-cca-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Automotiva 120a Amperes Jfa Carregador </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156516248-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Nova Fonte Carregador Jfa Storm 120a Bivolt</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4156504234-nova-fonte-carregador-jfa-storm-120a-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Jfa Carregador Slim Oferta Full</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492766855-fonte-automotiva-120a-jfa-carregador-slim-oferta-full-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo 120a Jfa Sci Slim Oferta</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754339-fonte-carregador-automotivo-120a-jfa-sci-slim-oferta-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Automotiva 120a Jfa Carregador Slim Oferta Relâmpago </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492732977-fonte-automotiva-120a-jfa-carregador-slim-oferta-relmpago-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>radical_som_filial</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Redline Red Line</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3492754089-fonte-carregador-automotivo-jfa-120a-sci-redline-red-line-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1418eedb-7d28-4d6f-904e-3ae0619ef661</t>
         </is>
       </c>
     </row>
